--- a/docs/assets/disciplinas/LOB1231.xlsx
+++ b/docs/assets/disciplinas/LOB1231.xlsx
@@ -134,7 +134,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1225 -  Tratamento de Águas Residuárias  (Requisito fraco)
+    <t xml:space="preserve">LOT2035 -  Tratamento Biológico de Efluentes  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOB1231.xlsx
+++ b/docs/assets/disciplinas/LOB1231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Aplicar as técnicas de modelação matemática no estudo de processos de tratamento de águas de abastecimento e residuárias. Fornecer ao aluno condições para uma análise matemática dos sistemas de tratamento de resíduos através de fundamentos de modelagem de fenômenos físicos e bioquímicos. Desenvolver a capacidade de uso de modelos matemáticos na simulação de processos empregados no tratamento de águas.</t>
+    <t>229266 - Adriano Francisco Siqueira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>229266 - Adriano Francisco Siqueira</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Modelagem matemática de processos de tratamento de águas residuárias: sedimentação, aeração, reatores aeróbios, reatores anaeróbios. Modelos matematicos de processos de tratamento de águas de abastecimento: floculação e filtração. Calibração e validação de modelos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1- Dinâmica de processos físico-químicos e biológicos. 2- Revisão das equações fundamentais: cinética bio-química e conservação da massa. 3- Fundamentos dos modelos de floculação. 4- Modelos dinâmicos do processo de sedimentação. 5- Fundamentos dos modelos de filtração: a equação de Darcy e os modelos de resistência à filtração. 6- Modelos dinâmicos do processo de oxigenação de águas com e sem consumo simultâneo de oxigênio. 7- Fundamentos do modelo de tratamento de águas residuárias por lodos ativados. 8- Fundamentos dos modelos de digestão anaeróbia. 9- Calibração e validação de modelos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas em sala de ensino informatizado, com auxílio de softwares para modelagem matemática.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A avaliação dos alunos deverá ser feita com base em exercícios resolvidos em casa e relatórios de atividades práticas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova única com nota igual ou superior a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Pinto, José Carlos e Lage, Paulo Laranjeira C. Métodos Numéricos em Problemas de Engenharia Química. Rio de Janeiro, E-papers Serviços Editorias, 2001.Weber Jr., W. J. e DiGianno, F.A Process Dynamics in Environmental Systems.New York, J. Wiley &amp; Sons. 1996.Garcia, Claudio. Modelagem e Simulação de Processos Industriais e de Sistemas Eletromecânicos. São Paulo, Edusp. 1997.Dochain, Denis e Vanrolleghem, Peter. A. Dynamical Modelling and Estimation in Wastewater Treatment Processes. London, IWA Publishing, 2001</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1231.xlsx
+++ b/docs/assets/disciplinas/LOB1231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Aplicar as técnicas de modelação matemática no estudo de processos de tratamento de águas de abastecimento e residuárias. Fornecer ao aluno condições para uma análise matemática dos sistemas de tratamento de resíduos através de fundamentos de modelagem de fenômenos físicos e bioquímicos. Desenvolver a capacidade de uso de modelos matemáticos na simulação de processos empregados no tratamento de águas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>229266 - Adriano Francisco Siqueira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Modelagem matemática de processos de tratamento de águas residuárias: sedimentação, aeração, reatores aeróbios, reatores anaeróbios. Modelos matematicos de processos de tratamento de águas de abastecimento: floculação e filtração. Calibração e validação de modelos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1- Dinâmica de processos físico-químicos e biológicos. 2- Revisão das equações fundamentais: cinética bio-química e conservação da massa. 3- Fundamentos dos modelos de floculação. 4- Modelos dinâmicos do processo de sedimentação. 5- Fundamentos dos modelos de filtração: a equação de Darcy e os modelos de resistência à filtração. 6- Modelos dinâmicos do processo de oxigenação de águas com e sem consumo simultâneo de oxigênio. 7- Fundamentos do modelo de tratamento de águas residuárias por lodos ativados. 8- Fundamentos dos modelos de digestão anaeróbia. 9- Calibração e validação de modelos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas em sala de ensino informatizado, com auxílio de softwares para modelagem matemática.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas em sala de ensino informatizado, com auxílio de softwares para modelagem matemática.</t>
+    <t>A avaliação dos alunos deverá ser feita com base em exercícios resolvidos em casa e relatórios de atividades práticas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A avaliação dos alunos deverá ser feita com base em exercícios resolvidos em casa e relatórios de atividades práticas.</t>
+    <t>Prova única com nota igual ou superior a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova única com nota igual ou superior a 5,0.</t>
+    <t>Pinto, José Carlos e Lage, Paulo Laranjeira C. Métodos Numéricos em Problemas de Engenharia Química. Rio de Janeiro, E-papers Serviços Editorias, 2001.Weber Jr., W. J. e DiGianno, F.A Process Dynamics in Environmental Systems.New York, J. Wiley &amp; Sons. 1996.Garcia, Claudio. Modelagem e Simulação de Processos Industriais e de Sistemas Eletromecânicos. São Paulo, Edusp. 1997.Dochain, Denis e Vanrolleghem, Peter. A. Dynamical Modelling and Estimation in Wastewater Treatment Processes. London, IWA Publishing, 2001</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,106 +616,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
